--- a/CashFlow/MO_cashflow.xlsx
+++ b/CashFlow/MO_cashflow.xlsx
@@ -4075,10 +4075,8 @@
           <t>Capital Stock Change</t>
         </is>
       </c>
-      <c r="B30" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B30" s="0" t="n">
+        <v>-1019000000.0</v>
       </c>
       <c r="C30" s="0" t="inlineStr">
         <is>
